--- a/aiurt-module-system/src/main/resources/templates/outsourcingPersonnelError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/outsourcingPersonnelError.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>委外人员列表数据</t>
   </si>
@@ -47,6 +47,27 @@
   </si>
   <si>
     <t>导入错误原因</t>
+  </si>
+  <si>
+    <t>{{$fe:maplist t.name</t>
+  </si>
+  <si>
+    <t>t.companyName</t>
+  </si>
+  <si>
+    <t>t.position</t>
+  </si>
+  <si>
+    <t>t.systemName</t>
+  </si>
+  <si>
+    <t>t.connectionWay</t>
+  </si>
+  <si>
+    <t>t.certificateCode</t>
+  </si>
+  <si>
+    <t>t.mistake}}</t>
   </si>
 </sst>
 </file>
@@ -1035,15 +1056,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="7" width="15" customWidth="1"/>
   </cols>
@@ -1103,6 +1124,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
